--- a/Documentación/Especificaciones de Diseño.xlsx
+++ b/Documentación/Especificaciones de Diseño.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Especificaciones de medición" sheetId="1" r:id="rId1"/>
@@ -81,15 +81,9 @@
     <t>INT-MED-06</t>
   </si>
   <si>
-    <t>El módulo ADC deberá contar con una frecuencia de sampleo mayor a 2MHz</t>
-  </si>
-  <si>
     <t>El dispositivo deberá contar con circuito de atenuación/amplificación para medir en el rango entre  ±100mV y ±12V</t>
   </si>
   <si>
-    <t>El circuito de medición deberá tener un ancho de banda mayor a 1MHz</t>
-  </si>
-  <si>
     <t>REQ-03</t>
   </si>
   <si>
@@ -328,6 +322,12 @@
   </si>
   <si>
     <t>Especificaciones de diseño - Interfaz Gráfica de Usuario</t>
+  </si>
+  <si>
+    <t>El circuito de medición deberá tener un ancho de banda mayor a 100KHz</t>
+  </si>
+  <si>
+    <t>El módulo ADC deberá contar con una frecuencia de sampleo mayor a 200KHz</t>
   </si>
 </sst>
 </file>
@@ -519,6 +519,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -527,12 +533,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -841,8 +841,8 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,20 +853,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -886,7 +886,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -897,7 +897,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -908,10 +908,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -919,10 +919,10 @@
         <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -930,7 +930,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -938,10 +938,10 @@
     </row>
     <row r="9" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
@@ -949,10 +949,10 @@
     </row>
     <row r="10" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -976,7 +976,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,40 +987,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="5" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -1039,10 +1039,10 @@
     </row>
     <row r="6" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="7" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="8" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -1072,10 +1072,10 @@
     </row>
     <row r="9" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
@@ -1110,29 +1110,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>5</v>
@@ -1140,10 +1140,10 @@
     </row>
     <row r="4" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
@@ -1151,10 +1151,10 @@
     </row>
     <row r="5" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>5</v>
@@ -1162,10 +1162,10 @@
     </row>
     <row r="6" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>9</v>
@@ -1173,10 +1173,10 @@
     </row>
     <row r="7" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>10</v>
@@ -1184,21 +1184,21 @@
     </row>
     <row r="8" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>8</v>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="10" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
@@ -1217,10 +1217,10 @@
     </row>
     <row r="11" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>8</v>
@@ -1228,10 +1228,10 @@
     </row>
     <row r="12" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>8</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="13" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>5</v>
@@ -1250,65 +1250,65 @@
     </row>
     <row r="14" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>7</v>
@@ -1316,13 +1316,13 @@
     </row>
     <row r="20" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1622,8 +1622,8 @@
   </sheetPr>
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1634,29 +1634,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>5</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="4" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
@@ -1675,10 +1675,10 @@
     </row>
     <row r="5" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>5</v>
@@ -1686,10 +1686,10 @@
     </row>
     <row r="6" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>5</v>
@@ -1697,10 +1697,10 @@
     </row>
     <row r="7" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>5</v>
@@ -1708,10 +1708,10 @@
     </row>
     <row r="8" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>5</v>
@@ -1719,10 +1719,10 @@
     </row>
     <row r="9" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>5</v>

--- a/Documentación/Especificaciones de Diseño.xlsx
+++ b/Documentación/Especificaciones de Diseño.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Especificaciones de medición" sheetId="1" r:id="rId1"/>
@@ -303,9 +303,6 @@
     <t>La transmisión de los datos de las señales se realizará desde el dispositivo hacia la GUI</t>
   </si>
   <si>
-    <t>La comunicación entre la GUI y el dispositivo deberá ser codificada con un protocolo de comunicación para la detección de errores de transmisión</t>
-  </si>
-  <si>
     <t>El dispositivo deberá transmitir información de los canales seleccionados en paquetes de datos, cada intervalos periódicos</t>
   </si>
   <si>
@@ -328,6 +325,9 @@
   </si>
   <si>
     <t>El módulo ADC deberá contar con una frecuencia de sampleo mayor a 200KHz</t>
+  </si>
+  <si>
+    <t>La comunicación entre la GUI y el dispositivo deberá ser codificada con un protocolo de comunicación para reducir el tamaño de la transmisión</t>
   </si>
 </sst>
 </file>
@@ -841,7 +841,7 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -908,7 +908,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -919,7 +919,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -1042,7 +1042,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -1111,7 +1111,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
@@ -1622,8 +1622,8 @@
   </sheetPr>
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1635,7 +1635,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
@@ -1656,7 +1656,7 @@
         <v>83</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>5</v>
@@ -1678,7 +1678,7 @@
         <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>5</v>
@@ -1700,7 +1700,7 @@
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>5</v>
@@ -1711,7 +1711,7 @@
         <v>89</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>5</v>
@@ -1722,7 +1722,7 @@
         <v>90</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>5</v>
